--- a/hiqu/HR/Performance Evaluation/November 2024/QA/Hamza Nouman.xlsx
+++ b/hiqu/HR/Performance Evaluation/November 2024/QA/Hamza Nouman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F94C43C-B56E-45A5-B7B3-73E68B11E227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B626565E-33DD-4A9A-AD19-9B6912C3670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -3009,7 +3009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="C10" s="74">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.3424657534246576</v>
+        <v>1.3671232876712329</v>
       </c>
       <c r="D10" s="74"/>
       <c r="E10" s="74"/>
@@ -3401,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ED319C-EE40-47F2-9EE8-C614D72A52FC}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3497,7 +3497,9 @@
       <c r="C7" s="31">
         <v>0.8</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="31">
+        <v>0.8</v>
+      </c>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="1"/>
@@ -3512,7 +3514,9 @@
       <c r="C8" s="31">
         <v>0.7</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="31">
+        <v>0.7</v>
+      </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="1"/>
@@ -3527,7 +3531,9 @@
       <c r="C9" s="31">
         <v>0.7</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="31">
+        <v>0.65</v>
+      </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="1"/>
@@ -3542,7 +3548,9 @@
       <c r="C10" s="31">
         <v>0.8</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="31">
+        <v>0.8</v>
+      </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="1"/>
@@ -3557,7 +3565,9 @@
       <c r="C11" s="31">
         <v>0.8</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="31">
+        <v>0.75</v>
+      </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="1"/>
@@ -3572,7 +3582,9 @@
       <c r="C12" s="31">
         <v>0.7</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="31">
+        <v>0.7</v>
+      </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="1"/>
@@ -3587,7 +3599,9 @@
       <c r="C13" s="31">
         <v>0.8</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="31">
+        <v>0.8</v>
+      </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="1"/>
@@ -3602,7 +3616,9 @@
       <c r="C14" s="31">
         <v>0.8</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="31">
+        <v>0.8</v>
+      </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="1"/>
@@ -3630,7 +3646,9 @@
       <c r="C16" s="31">
         <v>0.6</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="31">
+        <v>0.6</v>
+      </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
       <c r="G16" s="1"/>
@@ -3645,7 +3663,9 @@
       <c r="C17" s="31">
         <v>0.6</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="31">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
       <c r="G17" s="1"/>
@@ -3660,7 +3680,9 @@
       <c r="C18" s="31">
         <v>0.6</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="31">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
       <c r="G18" s="1"/>
@@ -3675,7 +3697,9 @@
       <c r="C19" s="31">
         <v>0.8</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="31">
+        <v>0.8</v>
+      </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
       <c r="G19" s="1"/>
@@ -3690,7 +3714,9 @@
       <c r="C20" s="31">
         <v>0.8</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="31">
+        <v>0.8</v>
+      </c>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="1"/>
@@ -3705,7 +3731,9 @@
       <c r="C21" s="31">
         <v>0.7</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="31">
+        <v>0.65</v>
+      </c>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="1"/>
@@ -3720,7 +3748,9 @@
       <c r="C22" s="31">
         <v>0.7</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="31">
+        <v>0.7</v>
+      </c>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="G22" s="1"/>
@@ -3748,7 +3778,9 @@
       <c r="C24" s="31">
         <v>0.6</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="31">
+        <v>0.6</v>
+      </c>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="1"/>
@@ -3763,7 +3795,9 @@
       <c r="C25" s="31">
         <v>0.6</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="31">
+        <v>0.6</v>
+      </c>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="1"/>
@@ -3778,7 +3812,9 @@
       <c r="C26" s="31">
         <v>0.6</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="31">
+        <v>0.6</v>
+      </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="1"/>
@@ -3793,7 +3829,9 @@
       <c r="C27" s="31">
         <v>0.6</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="31">
+        <v>0.6</v>
+      </c>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="1"/>
@@ -3808,7 +3846,9 @@
       <c r="C28" s="31">
         <v>0.7</v>
       </c>
-      <c r="D28" s="31"/>
+      <c r="D28" s="31">
+        <v>0.7</v>
+      </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
       <c r="G28" s="1"/>
@@ -3823,7 +3863,9 @@
       <c r="C29" s="31">
         <v>0.8</v>
       </c>
-      <c r="D29" s="31"/>
+      <c r="D29" s="31">
+        <v>0.8</v>
+      </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="1"/>
@@ -3838,7 +3880,9 @@
       <c r="C30" s="31">
         <v>0.65</v>
       </c>
-      <c r="D30" s="31"/>
+      <c r="D30" s="31">
+        <v>0.65</v>
+      </c>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="1"/>
@@ -3853,7 +3897,9 @@
       <c r="C31" s="31">
         <v>0.6</v>
       </c>
-      <c r="D31" s="31"/>
+      <c r="D31" s="31">
+        <v>0.6</v>
+      </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="1"/>
@@ -3950,7 +3996,7 @@
     <mergeCell ref="C4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C14">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3964,7 +4010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C22">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3978,7 +4024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C31">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3991,50 +4037,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D14">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{254ED800-5F1A-4B1E-9B1E-0A6304411DA8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D22">
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3401A913-3101-4927-BD9A-336050160379}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D31">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DA223B42-E408-4F98-ABB1-67ED26E5BD25}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E7:E14">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4048,7 +4052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E22">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4062,7 +4066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E31">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4076,7 +4080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F14">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4090,7 +4094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F22">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4104,6 +4108,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F31">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{52E8CC4C-C761-4445-9994-B27D5D1063B6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D14">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{31026241-1830-4946-8571-18E38DB82892}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D22">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6D1568FB-9C52-4078-A831-5D39A3FCFA74}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D31">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -4112,7 +4158,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52E8CC4C-C761-4445-9994-B27D5D1063B6}</x14:id>
+          <x14:id>{A5122BCE-B59F-4D0B-9192-8F7902D28A93}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4166,51 +4212,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C24:C31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{254ED800-5F1A-4B1E-9B1E-0A6304411DA8}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D7:D14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3401A913-3101-4927-BD9A-336050160379}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D16:D22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DA223B42-E408-4F98-ABB1-67ED26E5BD25}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="5" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D24:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B1470E73-8BB0-457A-977B-F1E0CE9F5488}">
@@ -4302,6 +4303,51 @@
           </x14:cfRule>
           <xm:sqref>F24:F31</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{31026241-1830-4946-8571-18E38DB82892}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6D1568FB-9C52-4078-A831-5D39A3FCFA74}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16:D22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A5122BCE-B59F-4D0B-9192-8F7902D28A93}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D24:D31</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4312,14 +4358,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9DD28-2AA3-40BE-9B44-742BA0E60626}">
   <dimension ref="B2:W43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:W2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.42578125" style="5" customWidth="1"/>
@@ -4558,7 +4604,7 @@
       <c r="M9" s="2">
         <v>8</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="47">
         <f>63.5+35</f>
         <v>98.5</v>
       </c>
@@ -4595,7 +4641,7 @@
       <c r="M10" s="2">
         <v>40</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="47">
         <f>10+75.5</f>
         <v>85.5</v>
       </c>
@@ -4916,13 +4962,15 @@
       <c r="I20" s="30"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="M20" s="2">
+        <v>4</v>
+      </c>
       <c r="N20" s="2">
         <v>5</v>
       </c>
       <c r="O20" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="72">
@@ -5582,7 +5630,7 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17">
         <f>SUM(M8:M41)</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N42" s="17">
         <f>SUM(N8:N41)</f>
@@ -5590,7 +5638,7 @@
       </c>
       <c r="O42" s="17">
         <f>SUM(O8:O41)</f>
-        <v>-108</v>
+        <v>-109</v>
       </c>
       <c r="P42" s="17"/>
       <c r="Q42" s="66">
